--- a/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type2/pd_results_W20_H200_B16.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type2/pd_results_W20_H200_B16.xlsx
@@ -502,25 +502,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5468277945619335</v>
+        <v>0.5481927710843374</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9890710382513661</v>
+        <v>0.9945355191256831</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5435435435435435</v>
+        <v>0.5465465465465466</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7042801556420234</v>
+        <v>0.7067961165048544</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4804804804804805</v>
+        <v>0.4714714714714714</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +528,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.1005334734972192</v>
+        <v>0.1216357361676411</v>
       </c>
       <c r="J2" t="n">
-        <v>1270.166883790879</v>
+        <v>1637.527297976944</v>
       </c>
       <c r="K2" t="n">
-        <v>2168816.052933197</v>
+        <v>3956997.61751226</v>
       </c>
       <c r="L2" t="n">
-        <v>1472.69007361807</v>
+        <v>1989.220354187102</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5967566470618517</v>
+        <v>0.2642838544578699</v>
       </c>
     </row>
   </sheetData>
